--- a/Выч Мат/6лаба/Лист Microsoft Excel.xlsx
+++ b/Выч Мат/6лаба/Лист Microsoft Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vallc\OneDrive\Рабочий стол\Лабы\Course-2\Выч Мат\6лаба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D905E11F-FFE1-4BFC-8C30-24162A2CFE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379E485F-684E-44D6-98B4-76A251B87A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="-48" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -107,8 +107,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -141,8 +141,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1994,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="87" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="87" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2701,15 +2701,15 @@
         <v>-8.6210600472369503E-4</v>
       </c>
       <c r="H44">
-        <f t="shared" ref="H44:H57" si="11">E44</f>
+        <f t="shared" ref="H44:H45" si="11">E44</f>
         <v>0.73297201930624956</v>
       </c>
       <c r="J44">
-        <f t="shared" ref="J44:J57" si="12">G44</f>
+        <f t="shared" ref="J44:J45" si="12">G44</f>
         <v>-8.6210600472369503E-4</v>
       </c>
       <c r="K44">
-        <f t="shared" ref="K44:K57" si="13">D44</f>
+        <f t="shared" ref="K44:K45" si="13">D44</f>
         <v>-0.56872729230472785</v>
       </c>
       <c r="M44">
@@ -2800,41 +2800,41 @@
         <v>-1.7260890039505483E-6</v>
       </c>
       <c r="H48">
-        <f t="shared" ref="H48:H57" si="26">E48</f>
+        <f t="shared" ref="H48:H49" si="26">E48</f>
         <v>0.7310828949799667</v>
       </c>
       <c r="J48">
-        <f t="shared" ref="J48:J57" si="27">G48</f>
+        <f t="shared" ref="J48:J49" si="27">G48</f>
         <v>-1.7260890039505483E-6</v>
       </c>
       <c r="K48">
-        <f t="shared" ref="K48:K57" si="28">D48</f>
+        <f t="shared" ref="K48:K49" si="28">D48</f>
         <v>-0.56631057826087217</v>
       </c>
       <c r="M48" s="2">
-        <f t="shared" ref="M48" si="29">MAX(ABS(A45)-ABS(A49),ABS(B45)-ABS(B49))</f>
+        <f>MAX(ABS(A45)-ABS(A49),ABS(B45)-ABS(B49))</f>
         <v>2.5153339516803541E-6</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f t="shared" ref="A49" si="30">A45+H47/E47</f>
+        <f t="shared" ref="A49" si="29">A45+H47/E47</f>
         <v>0.63102535032286122</v>
       </c>
       <c r="B49">
-        <f t="shared" ref="B49" si="31">B45+K47/E47</f>
+        <f t="shared" ref="B49" si="30">B45+K47/E47</f>
         <v>0.60052681250702977</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49" si="32">1.4*A45</f>
+        <f t="shared" ref="D49" si="31">1.4*A45</f>
         <v>0.883439011919538</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49" si="33">4*B45</f>
+        <f t="shared" ref="E49" si="32">4*B45</f>
         <v>2.4021055997157874</v>
       </c>
       <c r="G49">
-        <f t="shared" ref="G49" si="34">0.7*(A45^2)+2*(B45^2)-1</f>
+        <f t="shared" ref="G49" si="33">0.7*(A45^2)+2*(B45^2)-1</f>
         <v>1.2310880177501815E-6</v>
       </c>
       <c r="H49">
